--- a/docs/odh/shr-core-Location.xlsx
+++ b/docs/odh/shr-core-Location.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$32</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="229">
   <si>
     <t>Path</t>
   </si>
@@ -203,343 +203,240 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t>Location.meta.id</t>
+    <t>Location.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
+This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Location.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Location.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded in formation is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-1
+</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Location.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Location.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>mobilefacility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-MobileFacility-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A facility that moves from place to place, such as Meals-On-Wheels.</t>
+  </si>
+  <si>
+    <t>Location.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Location.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Unique code or number identifying the location to its users</t>
+  </si>
+  <si>
+    <t>Unique code or number identifying the location to its users.</t>
+  </si>
+  <si>
+    <t>Organization label locations in registries, need to keep track of those.</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Location.status</t>
+  </si>
+  <si>
+    <t>active | suspended | inactive</t>
+  </si>
+  <si>
+    <t>The status property covers the general availability of the resource, not the current value which may be covered by the operationStatus, or by a schedule/slots if they are configured for the location.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Indicates whether the location is still in use.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/location-status</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Location.operationalStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The Operational status of the location (typically only for a bed/room)</t>
+  </si>
+  <si>
+    <t>The Operational status covers operation values most relevant to beds (but can also apply to rooms/units/chair/etc such as an isolation unit/dialisys chair). This typically covers concepts such as contamination, housekeeping and other activities like maintenance.</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v2-0116</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Location.name</t>
   </si>
   <si>
     <t xml:space="preserve">string {[]} {[]}
 </t>
   </si>
   <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Location.meta.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Location.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Location.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
-  </si>
-  <si>
-    <t>Location.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url]().</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Location.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Location.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
-  </si>
-  <si>
-    <t>Location.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
-This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Location.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Location.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded in formation is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-1
-</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Location.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Location.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>mobilefacility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-MobileFacility-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A facility that moves from place to place, such as Meals-On-Wheels.</t>
-  </si>
-  <si>
-    <t>Location.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Location.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Unique code or number identifying the location to its users</t>
-  </si>
-  <si>
-    <t>Unique code or number identifying the location to its users.</t>
-  </si>
-  <si>
-    <t>Organization label locations in registries, need to keep track of those.</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Location.status</t>
-  </si>
-  <si>
-    <t>active | suspended | inactive</t>
-  </si>
-  <si>
-    <t>The status property covers the general availability of the resource, not the current value which may be covered by the operationStatus, or by a schedule/slots if they are configured for the location.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Indicates whether the location is still in use.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/location-status</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Location.operationalStatus</t>
-  </si>
-  <si>
-    <t>The Operational status of the location (typically only for a bed/room)</t>
-  </si>
-  <si>
-    <t>The Operational status covers operation values most relevant to beds (but can also apply to rooms/units/chair/etc such as an isolation unit/dialisys chair). This typically covers concepts such as contamination, housekeeping and other activities like maintenance.</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0116</t>
-  </si>
-  <si>
-    <t>Location.name</t>
-  </si>
-  <si>
     <t>Name of the location as used by humans</t>
   </si>
   <si>
@@ -667,242 +564,6 @@
     <t>.addr</t>
   </si>
   <si>
-    <t>Location.address.id</t>
-  </si>
-  <si>
-    <t>Location.address.extension</t>
-  </si>
-  <si>
-    <t>Location.address.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old - purpose of this address</t>
-  </si>
-  <si>
-    <t>The purpose of this address.</t>
-  </si>
-  <si>
-    <t>This is labeled as "Is Modifier" because applications should not mistake a temporary or old address etc.for a current/permanent one. Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Allows an appropriate address to be chosen from a list of many.</t>
-  </si>
-  <si>
-    <t>The use of an address</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-use</t>
-  </si>
-  <si>
-    <t>Address.use</t>
-  </si>
-  <si>
-    <t>./AddressPurpose</t>
-  </si>
-  <si>
-    <t>unique(./use)</t>
-  </si>
-  <si>
-    <t>Location.address.type</t>
-  </si>
-  <si>
-    <t>postal | physical | both</t>
-  </si>
-  <si>
-    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
-  </si>
-  <si>
-    <t>The type of an address (physical / postal)</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-type</t>
-  </si>
-  <si>
-    <t>Address.type</t>
-  </si>
-  <si>
-    <t>Location.address.text</t>
-  </si>
-  <si>
-    <t>Text representation of the address</t>
-  </si>
-  <si>
-    <t>A full text representation of the address.</t>
-  </si>
-  <si>
-    <t>Can provide both a text representation and parts.</t>
-  </si>
-  <si>
-    <t>A renderable, unencoded form.</t>
-  </si>
-  <si>
-    <t>Address.text</t>
-  </si>
-  <si>
-    <t>./formatted</t>
-  </si>
-  <si>
-    <t>Location.address.line</t>
-  </si>
-  <si>
-    <t>Street name, number, direction &amp; P.O. Box etc.</t>
-  </si>
-  <si>
-    <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
-  </si>
-  <si>
-    <t>home | work | temp | old - purpose of this address.</t>
-  </si>
-  <si>
-    <t>Address.line</t>
-  </si>
-  <si>
-    <t>./StreetAddress (newline delimitted)</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = AL]</t>
-  </si>
-  <si>
-    <t>Location.address.city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Municpality
-</t>
-  </si>
-  <si>
-    <t>Name of city, town etc.</t>
-  </si>
-  <si>
-    <t>The name of the city, town, village or other community or delivery center.</t>
-  </si>
-  <si>
-    <t>Address.city</t>
-  </si>
-  <si>
-    <t>./Jurisdiction</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CTY]</t>
-  </si>
-  <si>
-    <t>Location.address.district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">County
-</t>
-  </si>
-  <si>
-    <t>District name (aka county)</t>
-  </si>
-  <si>
-    <t>The name of the administrative area (county).</t>
-  </si>
-  <si>
-    <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
-  </si>
-  <si>
-    <t>Address.district</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CNT | CPA]</t>
-  </si>
-  <si>
-    <t>Location.address.state</t>
-  </si>
-  <si>
-    <t>Province
-Territory</t>
-  </si>
-  <si>
-    <t>Sub-unit of country (abbreviations ok)</t>
-  </si>
-  <si>
-    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (i.e. US 2 letter state codes).</t>
-  </si>
-  <si>
-    <t>Two letter USPS alphabetic codes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/usps-state</t>
-  </si>
-  <si>
-    <t>Address.state</t>
-  </si>
-  <si>
-    <t>./Sites</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = STA]</t>
-  </si>
-  <si>
-    <t>Location.address.postalCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zip
-</t>
-  </si>
-  <si>
-    <t>US Zip Codes</t>
-  </si>
-  <si>
-    <t>A postal code designating a region defined by the postal service.</t>
-  </si>
-  <si>
-    <t>Address.postalCode</t>
-  </si>
-  <si>
-    <t>./PostalIdentificationCode</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = ZIP]</t>
-  </si>
-  <si>
-    <t>Location.address.country</t>
-  </si>
-  <si>
-    <t>Country (e.g. can be ISO 3166 2 or 3 letter code)</t>
-  </si>
-  <si>
-    <t>Country - a nation as commonly understood or generally accepted.</t>
-  </si>
-  <si>
-    <t>ISO 3166 3 letter codes can be used in place of a full country name.</t>
-  </si>
-  <si>
-    <t>Address.country</t>
-  </si>
-  <si>
-    <t>./Country</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CNT]</t>
-  </si>
-  <si>
-    <t>Location.address.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Time period when address was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when address was/is in use.</t>
-  </si>
-  <si>
-    <t>Allows addresses to be placed in historical context.</t>
-  </si>
-  <si>
-    <t>Address.period</t>
-  </si>
-  <si>
-    <t>./StartDate and ./EndDate</t>
-  </si>
-  <si>
-    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
-  </si>
-  <si>
     <t>Location.physicalType</t>
   </si>
   <si>
@@ -913,6 +574,9 @@
   </si>
   <si>
     <t>For purposes of showing relevant locations in queries, we need to categorize locations.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/location-physical-type</t>
@@ -947,7 +611,22 @@
     <t>Location.position.id</t>
   </si>
   <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
     <t>Location.position.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>Location.position.modifierExtension</t>
@@ -1200,7 +879,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM51"/>
+  <dimension ref="A1:AM32"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1232,11 +911,11 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="81.6484375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="59.3359375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1704,10 +1383,10 @@
         <v>39</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>62</v>
@@ -1718,7 +1397,9 @@
       <c r="L5" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" t="s" s="2">
+        <v>65</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>39</v>
@@ -1767,7 +1448,7 @@
         <v>39</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>40</v>
@@ -1785,7 +1466,7 @@
         <v>39</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>39</v>
@@ -1797,14 +1478,14 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>39</v>
@@ -1816,16 +1497,16 @@
         <v>39</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1851,37 +1532,37 @@
         <v>39</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AE6" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>39</v>
@@ -1893,7 +1574,7 @@
         <v>39</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>39</v>
@@ -1901,11 +1582,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -1921,19 +1602,19 @@
         <v>39</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1982,13 +1663,17 @@
       <c r="AD7" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE7" s="2"/>
+      <c r="AE7" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AF7" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG7" s="2"/>
+      <c r="AG7" t="s" s="2">
+        <v>49</v>
+      </c>
       <c r="AH7" t="s" s="2">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>39</v>
@@ -1997,7 +1682,7 @@
         <v>39</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>39</v>
@@ -2005,18 +1690,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>39</v>
@@ -2025,19 +1710,19 @@
         <v>39</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2086,11 +1771,15 @@
       <c r="AD8" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE8" s="2"/>
+      <c r="AE8" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="AF8" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG8" s="2"/>
+      <c r="AG8" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH8" t="s" s="2">
         <v>39</v>
       </c>
@@ -2101,7 +1790,7 @@
         <v>39</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>39</v>
@@ -2109,11 +1798,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2129,19 +1818,19 @@
         <v>39</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2179,22 +1868,24 @@
         <v>39</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE9" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="AF9" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG9" s="2"/>
+      <c r="AG9" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH9" t="s" s="2">
         <v>39</v>
       </c>
@@ -2205,7 +1896,7 @@
         <v>39</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>39</v>
@@ -2213,9 +1904,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="C10" t="s" s="2">
         <v>39</v>
       </c>
@@ -2224,7 +1917,7 @@
         <v>40</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>39</v>
@@ -2233,20 +1926,16 @@
         <v>39</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="K10" s="2"/>
       <c r="L10" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>39</v>
@@ -2271,13 +1960,13 @@
         <v>39</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>39</v>
@@ -2294,11 +1983,15 @@
       <c r="AD10" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE10" s="2"/>
+      <c r="AE10" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="AF10" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG10" s="2"/>
+      <c r="AG10" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH10" t="s" s="2">
         <v>39</v>
       </c>
@@ -2317,11 +2010,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2334,22 +2027,22 @@
         <v>39</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2375,13 +2068,13 @@
         <v>39</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>39</v>
@@ -2398,11 +2091,15 @@
       <c r="AD11" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE11" s="2"/>
+      <c r="AE11" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="AF11" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG11" s="2"/>
+      <c r="AG11" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH11" t="s" s="2">
         <v>39</v>
       </c>
@@ -2413,7 +2110,7 @@
         <v>39</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>39</v>
@@ -2421,7 +2118,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2432,30 +2129,30 @@
         <v>40</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>39</v>
       </c>
@@ -2503,13 +2200,13 @@
         <v>39</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>39</v>
@@ -2521,15 +2218,15 @@
         <v>39</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>39</v>
+        <v>115</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2543,25 +2240,25 @@
         <v>49</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2587,32 +2284,32 @@
         <v>39</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE13" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="Y13" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>118</v>
-      </c>
       <c r="AF13" t="s" s="2">
         <v>40</v>
       </c>
@@ -2629,19 +2326,19 @@
         <v>39</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>39</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2657,20 +2354,18 @@
         <v>39</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>39</v>
@@ -2695,13 +2390,11 @@
         <v>39</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>39</v>
@@ -2728,7 +2421,7 @@
         <v>49</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>39</v>
@@ -2737,47 +2430,47 @@
         <v>39</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>39</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2827,13 +2520,13 @@
         <v>39</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>39</v>
@@ -2842,10 +2535,10 @@
         <v>39</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>39</v>
@@ -2853,11 +2546,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2876,18 +2569,20 @@
         <v>39</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>39</v>
       </c>
@@ -2923,17 +2618,19 @@
         <v>39</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB16" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AC16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>40</v>
@@ -2951,7 +2648,7 @@
         <v>39</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>39</v>
@@ -2959,11 +2656,9 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
         <v>39</v>
       </c>
@@ -2981,17 +2676,21 @@
         <v>39</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="K17" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="L17" t="s" s="2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="N17" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>39</v>
       </c>
@@ -3039,13 +2738,13 @@
         <v>39</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>39</v>
@@ -3057,7 +2756,7 @@
         <v>39</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>39</v>
@@ -3065,18 +2764,18 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>39</v>
@@ -3085,21 +2784,23 @@
         <v>50</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>39</v>
       </c>
@@ -3123,13 +2824,13 @@
         <v>39</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>39</v>
@@ -3147,13 +2848,13 @@
         <v>39</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>39</v>
@@ -3165,15 +2866,15 @@
         <v>39</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>39</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3181,10 +2882,10 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>39</v>
@@ -3196,18 +2897,16 @@
         <v>50</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="N19" t="s" s="2">
-        <v>150</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>39</v>
       </c>
@@ -3231,13 +2930,13 @@
         <v>39</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>39</v>
@@ -3255,13 +2954,13 @@
         <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>39</v>
@@ -3273,15 +2972,15 @@
         <v>39</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3292,29 +2991,27 @@
         <v>40</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>50</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>39</v>
@@ -3339,13 +3036,13 @@
         <v>39</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>39</v>
@@ -3363,13 +3060,13 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>39</v>
@@ -3381,15 +3078,15 @@
         <v>39</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>161</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3403,25 +3100,29 @@
         <v>49</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>39</v>
       </c>
@@ -3445,11 +3146,13 @@
         <v>39</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="X21" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Y21" t="s" s="2">
-        <v>166</v>
+        <v>39</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>39</v>
@@ -3467,7 +3170,7 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
@@ -3482,18 +3185,18 @@
         <v>39</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>66</v>
+        <v>174</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>161</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3501,13 +3204,13 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>39</v>
@@ -3516,18 +3219,18 @@
         <v>50</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>62</v>
+        <v>158</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>39</v>
       </c>
@@ -3551,13 +3254,13 @@
         <v>39</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>39</v>
@@ -3575,7 +3278,7 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3590,18 +3293,18 @@
         <v>39</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>171</v>
+        <v>39</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>39</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3612,7 +3315,7 @@
         <v>40</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>39</v>
@@ -3624,19 +3327,17 @@
         <v>39</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>39</v>
@@ -3685,25 +3386,25 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>39</v>
@@ -3711,7 +3412,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3731,21 +3432,19 @@
         <v>39</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="M24" s="2"/>
-      <c r="N24" t="s" s="2">
-        <v>181</v>
-      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>39</v>
       </c>
@@ -3793,7 +3492,7 @@
         <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
@@ -3811,7 +3510,7 @@
         <v>39</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>39</v>
@@ -3819,43 +3518,41 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>184</v>
+        <v>96</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>39</v>
       </c>
@@ -3879,13 +3576,13 @@
         <v>39</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>185</v>
+        <v>39</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>188</v>
+        <v>39</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>39</v>
@@ -3903,13 +3600,13 @@
         <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>39</v>
@@ -3921,46 +3618,48 @@
         <v>39</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>190</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>39</v>
@@ -3985,13 +3684,13 @@
         <v>39</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>194</v>
+        <v>39</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>195</v>
+        <v>39</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>39</v>
@@ -4009,13 +3708,13 @@
         <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>39</v>
@@ -4027,15 +3726,15 @@
         <v>39</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>196</v>
+        <v>92</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>190</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4043,13 +3742,13 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>39</v>
@@ -4058,13 +3757,13 @@
         <v>39</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4115,13 +3814,13 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>39</v>
@@ -4133,15 +3832,15 @@
         <v>39</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4149,13 +3848,13 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>39</v>
@@ -4164,20 +3863,16 @@
         <v>39</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N28" t="s" s="2">
         <v>207</v>
       </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>39</v>
       </c>
@@ -4225,10 +3920,10 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>49</v>
@@ -4240,10 +3935,10 @@
         <v>39</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>39</v>
@@ -4251,7 +3946,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4274,13 +3969,13 @@
         <v>39</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>62</v>
+        <v>201</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>63</v>
+        <v>209</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>64</v>
+        <v>210</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4331,7 +4026,7 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>65</v>
+        <v>208</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -4349,49 +4044,51 @@
         <v>39</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>66</v>
+        <v>204</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>69</v>
+        <v>212</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>70</v>
+        <v>213</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>71</v>
+        <v>214</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>39</v>
       </c>
@@ -4427,25 +4124,25 @@
         <v>39</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>39</v>
@@ -4457,7 +4154,7 @@
         <v>39</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>66</v>
+        <v>217</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>39</v>
@@ -4465,7 +4162,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4482,25 +4179,23 @@
         <v>39</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>112</v>
+        <v>219</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>39</v>
@@ -4525,13 +4220,13 @@
         <v>39</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>216</v>
+        <v>39</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>217</v>
+        <v>39</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>39</v>
@@ -4564,10 +4259,10 @@
         <v>39</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>219</v>
+        <v>39</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>39</v>
@@ -4575,7 +4270,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4586,7 +4281,7 @@
         <v>40</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>39</v>
@@ -4595,19 +4290,21 @@
         <v>39</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>112</v>
+        <v>225</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>39</v>
       </c>
@@ -4631,37 +4328,37 @@
         <v>39</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>226</v>
-      </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>39</v>
@@ -4673,2056 +4370,14 @@
         <v>39</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>220</v>
+        <v>131</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" hidden="true">
-      <c r="A33" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F33" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F35" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" hidden="true">
-      <c r="A36" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F36" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F37" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F38" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R38" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" hidden="true">
-      <c r="A39" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F39" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" hidden="true">
-      <c r="A40" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F40" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R40" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" hidden="true">
-      <c r="A41" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F41" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R41" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="42" hidden="true">
-      <c r="A42" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F42" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R42" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" hidden="true">
-      <c r="A43" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F43" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" hidden="true">
-      <c r="A44" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" hidden="true">
-      <c r="A45" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" hidden="true">
-      <c r="A46" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="F46" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" hidden="true">
-      <c r="A47" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="F47" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R47" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" hidden="true">
-      <c r="A48" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F48" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="F49" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" hidden="true">
-      <c r="A50" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F50" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" hidden="true">
-      <c r="A51" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="AL51" t="s" s="2">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL51">
+  <autoFilter ref="A1:AL32">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6732,7 +4387,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI50">
+  <conditionalFormatting sqref="A2:AI31">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/odh/shr-core-Location.xlsx
+++ b/docs/odh/shr-core-Location.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$41</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="263">
   <si>
     <t>Path</t>
   </si>
@@ -203,13 +203,162 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t>Location.implicitRules</t>
+    <t>Location.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Location.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>sourcesystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-SourceSystem-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>FHIR: This provides a minimal amount of Provenance information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.
+FHIM: Identifies the computer system that created the medical record. This optional field may also be used to indicate that the medical record was originally created by a different organization from the one that is currently storing or utilizing the record in that the assigning authority of the Id could be set to that originating organization. This property is optional, as some systems will assume that all records that it contains originated in that system, however it is anticipated that it will become increasingly commonplace for records from multiple systems and organizations will be comingled in order to provide a complete picture of the patient's health record.</t>
+  </si>
+  <si>
+    <t>Location.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Location.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
+  </si>
+  <si>
+    <t>Location.meta.profile</t>
   </si>
   <si>
     <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url]().</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Location.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Location.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Location.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -239,9 +388,6 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>A human language.</t>
   </si>
   <si>
@@ -310,41 +456,30 @@
     <t>Location.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>hoursofoperation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-HoursOfOperation-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
+    <t>What days/times during a week is this location usually open.</t>
+  </si>
+  <si>
+    <t>availabilityexceptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-AvailabilityExceptions-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>mobilefacility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-MobileFacility-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A facility that moves from place to place, such as Meals-On-Wheels.</t>
+    <t>A description of when the locations opening ours are different to normal, e.g. public holiday availability. Succinctly describing all possible exceptions to normal site availability as detailed in the opening hours Times.</t>
   </si>
   <si>
     <t>Location.modifierExtension</t>
@@ -411,10 +546,6 @@
     <t>Location.operationalStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
-</t>
-  </si>
-  <si>
     <t>The Operational status of the location (typically only for a bed/room)</t>
   </si>
   <si>
@@ -427,14 +558,7 @@
     <t>http://terminology.hl7.org/ValueSet/v2-0116</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Location.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string {[]} {[]}
-</t>
   </si>
   <si>
     <t>Name of the location as used by humans</t>
@@ -576,9 +700,6 @@
     <t>For purposes of showing relevant locations in queries, we need to categorize locations.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/location-physical-type</t>
   </si>
   <si>
@@ -611,22 +732,7 @@
     <t>Location.position.id</t>
   </si>
   <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Location.position.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Location.position.modifierExtension</t>
@@ -679,7 +785,7 @@
     <t>Location.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Organization]]}
 </t>
   </si>
   <si>
@@ -701,7 +807,7 @@
     <t>Location.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Location]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Location]]}
 </t>
   </si>
   <si>
@@ -879,7 +985,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM32"/>
+  <dimension ref="A1:AL41"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -889,7 +995,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="33.32421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.25" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -911,11 +1017,11 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="81.6484375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="59.3359375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1383,10 +1489,10 @@
         <v>39</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>62</v>
@@ -1397,9 +1503,7 @@
       <c r="L5" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="M5" t="s" s="2">
-        <v>65</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>39</v>
@@ -1448,7 +1552,7 @@
         <v>39</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>40</v>
@@ -1466,7 +1570,7 @@
         <v>39</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>39</v>
@@ -1478,14 +1582,14 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>39</v>
@@ -1497,16 +1601,16 @@
         <v>39</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1532,37 +1636,37 @@
         <v>39</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA6" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AB6" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="AC6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>39</v>
@@ -1574,7 +1678,7 @@
         <v>39</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>39</v>
@@ -1582,11 +1686,13 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="C7" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -1607,15 +1713,11 @@
       <c r="J7" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="K7" s="2"/>
+      <c r="L7" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="L7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>81</v>
-      </c>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
         <v>39</v>
@@ -1664,16 +1766,16 @@
         <v>39</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>39</v>
@@ -1682,7 +1784,7 @@
         <v>39</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>39</v>
@@ -1690,18 +1792,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>39</v>
@@ -1710,19 +1812,19 @@
         <v>39</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1771,15 +1873,11 @@
       <c r="AD8" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE8" t="s" s="2">
-        <v>91</v>
-      </c>
+      <c r="AE8" s="2"/>
       <c r="AF8" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG8" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG8" s="2"/>
       <c r="AH8" t="s" s="2">
         <v>39</v>
       </c>
@@ -1790,7 +1888,7 @@
         <v>39</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>39</v>
@@ -1798,18 +1896,18 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>39</v>
@@ -1818,19 +1916,19 @@
         <v>39</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -1868,24 +1966,22 @@
         <v>39</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="AE9" s="2"/>
       <c r="AF9" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG9" s="2"/>
       <c r="AH9" t="s" s="2">
         <v>39</v>
       </c>
@@ -1896,7 +1992,7 @@
         <v>39</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>39</v>
@@ -1904,11 +2000,9 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>39</v>
       </c>
@@ -1917,7 +2011,7 @@
         <v>40</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>39</v>
@@ -1926,16 +2020,20 @@
         <v>39</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="L10" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>39</v>
@@ -1983,15 +2081,11 @@
       <c r="AD10" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE10" t="s" s="2">
-        <v>101</v>
-      </c>
+      <c r="AE10" s="2"/>
       <c r="AF10" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG10" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG10" s="2"/>
       <c r="AH10" t="s" s="2">
         <v>39</v>
       </c>
@@ -2010,11 +2104,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2027,19 +2121,19 @@
         <v>39</v>
       </c>
       <c r="H11" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>39</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="M11" t="s" s="2">
         <v>98</v>
@@ -2068,13 +2162,13 @@
         <v>39</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>39</v>
@@ -2091,15 +2185,11 @@
       <c r="AD11" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE11" t="s" s="2">
-        <v>108</v>
-      </c>
+      <c r="AE11" s="2"/>
       <c r="AF11" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG11" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG11" s="2"/>
       <c r="AH11" t="s" s="2">
         <v>39</v>
       </c>
@@ -2110,7 +2200,7 @@
         <v>39</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>39</v>
@@ -2118,7 +2208,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2141,18 +2231,18 @@
         <v>50</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>39</v>
       </c>
@@ -2176,13 +2266,13 @@
         <v>39</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>39</v>
@@ -2199,34 +2289,30 @@
       <c r="AD12" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE12" t="s" s="2">
+      <c r="AE12" s="2"/>
+      <c r="AF12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG12" s="2"/>
+      <c r="AH12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" hidden="true">
+      <c r="A13" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2240,7 +2326,7 @@
         <v>49</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>50</v>
@@ -2249,16 +2335,16 @@
         <v>50</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2284,13 +2370,13 @@
         <v>39</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>39</v>
@@ -2308,7 +2394,7 @@
         <v>39</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>40</v>
@@ -2326,15 +2412,15 @@
         <v>39</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>124</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2354,18 +2440,20 @@
         <v>39</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>39</v>
@@ -2390,11 +2478,13 @@
         <v>39</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="X14" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="Y14" t="s" s="2">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>39</v>
@@ -2412,7 +2502,7 @@
         <v>39</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>40</v>
@@ -2430,47 +2520,47 @@
         <v>39</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>124</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2520,7 +2610,7 @@
         <v>39</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>40</v>
@@ -2529,16 +2619,16 @@
         <v>49</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>137</v>
+        <v>39</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>39</v>
@@ -2546,11 +2636,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2572,17 +2662,15 @@
         <v>133</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>39</v>
       </c>
@@ -2630,7 +2718,7 @@
         <v>39</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>40</v>
@@ -2656,18 +2744,18 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>39</v>
@@ -2676,21 +2764,21 @@
         <v>39</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>39</v>
       </c>
@@ -2726,25 +2814,23 @@
         <v>39</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>39</v>
@@ -2756,7 +2842,7 @@
         <v>39</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>39</v>
@@ -2764,9 +2850,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>39</v>
       </c>
@@ -2775,32 +2863,26 @@
         <v>40</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="K18" s="2"/>
       <c r="L18" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>39</v>
       </c>
@@ -2824,13 +2906,13 @@
         <v>39</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>151</v>
+        <v>39</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>39</v>
@@ -2848,13 +2930,13 @@
         <v>39</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>39</v>
@@ -2866,23 +2948,25 @@
         <v>39</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>155</v>
+        <v>39</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>156</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="C19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>49</v>
@@ -2894,16 +2978,14 @@
         <v>39</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="K19" s="2"/>
       <c r="L19" t="s" s="2">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2930,13 +3012,13 @@
         <v>39</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>160</v>
+        <v>39</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>161</v>
+        <v>39</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>39</v>
@@ -2954,13 +3036,13 @@
         <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>39</v>
@@ -2972,19 +3054,19 @@
         <v>39</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>162</v>
+        <v>39</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>156</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -2994,24 +3076,26 @@
         <v>41</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H20" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="I20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>164</v>
+        <v>69</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>39</v>
@@ -3060,7 +3144,7 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
@@ -3078,15 +3162,15 @@
         <v>39</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3097,31 +3181,29 @@
         <v>40</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="J21" t="s" s="2">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>39</v>
@@ -3170,13 +3252,13 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>39</v>
@@ -3185,18 +3267,18 @@
         <v>39</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>39</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3210,27 +3292,27 @@
         <v>49</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>39</v>
       </c>
@@ -3254,13 +3336,13 @@
         <v>39</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>39</v>
@@ -3278,7 +3360,7 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3296,15 +3378,15 @@
         <v>39</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3324,21 +3406,19 @@
         <v>39</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>183</v>
+        <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="M23" s="2"/>
-      <c r="N23" t="s" s="2">
-        <v>186</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>39</v>
       </c>
@@ -3362,13 +3442,11 @@
         <v>39</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="X23" s="2"/>
       <c r="Y23" t="s" s="2">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>39</v>
@@ -3386,7 +3464,7 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3398,21 +3476,21 @@
         <v>39</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>187</v>
+        <v>39</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>188</v>
+        <v>66</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>39</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3420,30 +3498,32 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>39</v>
@@ -3492,7 +3572,7 @@
         <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
@@ -3507,10 +3587,10 @@
         <v>39</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>39</v>
@@ -3518,11 +3598,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3541,18 +3621,20 @@
         <v>39</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>39</v>
       </c>
@@ -3600,7 +3682,7 @@
         <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
@@ -3618,7 +3700,7 @@
         <v>39</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>39</v>
@@ -3626,41 +3708,41 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>197</v>
+        <v>39</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>39</v>
       </c>
@@ -3708,13 +3790,13 @@
         <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>39</v>
@@ -3726,7 +3808,7 @@
         <v>39</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>92</v>
+        <v>188</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>39</v>
@@ -3734,7 +3816,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3742,7 +3824,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>49</v>
@@ -3751,22 +3833,26 @@
         <v>39</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>201</v>
+        <v>115</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>39</v>
       </c>
@@ -3790,13 +3876,13 @@
         <v>39</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>39</v>
+        <v>163</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>39</v>
+        <v>191</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>39</v>
@@ -3814,10 +3900,10 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>49</v>
@@ -3832,15 +3918,15 @@
         <v>39</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>39</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3860,16 +3946,16 @@
         <v>39</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3896,13 +3982,13 @@
         <v>39</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>39</v>
+        <v>200</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>39</v>
+        <v>201</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>39</v>
@@ -3920,10 +4006,10 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>49</v>
@@ -3938,15 +4024,15 @@
         <v>39</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>39</v>
+        <v>196</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3957,10 +4043,10 @@
         <v>40</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>39</v>
@@ -3969,13 +4055,13 @@
         <v>39</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4026,13 +4112,13 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>39</v>
@@ -4044,7 +4130,7 @@
         <v>39</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>39</v>
@@ -4052,7 +4138,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4060,7 +4146,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>49</v>
@@ -4072,22 +4158,22 @@
         <v>39</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>39</v>
@@ -4136,7 +4222,7 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -4151,10 +4237,10 @@
         <v>39</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>39</v>
@@ -4162,7 +4248,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4182,20 +4268,20 @@
         <v>39</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>39</v>
@@ -4220,13 +4306,13 @@
         <v>39</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>39</v>
+        <v>216</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>39</v>
+        <v>219</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>39</v>
@@ -4244,7 +4330,7 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
@@ -4262,15 +4348,15 @@
         <v>39</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>39</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4281,7 +4367,7 @@
         <v>40</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>39</v>
@@ -4293,17 +4379,17 @@
         <v>39</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>39</v>
@@ -4352,32 +4438,998 @@
         <v>39</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG32" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F34" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AH32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AL32" t="s" s="2">
+      <c r="G34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" hidden="true">
+      <c r="A35" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL32">
+  <autoFilter ref="A1:AL41">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -4387,7 +5439,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI31">
+  <conditionalFormatting sqref="A2:AI40">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
